--- a/biology/Botanique/Didymoglossum_petersii/Didymoglossum_petersii.xlsx
+++ b/biology/Botanique/Didymoglossum_petersii/Didymoglossum_petersii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymoglossum petersii est une espèce de fougères de la famille des Hyménophyllacées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a les caractéristiques suivantes :
 un long rhizome traçant, densément couvert de poils bruns à noirâtres et sans racines
@@ -520,7 +534,7 @@
 une nervuration catadrome.
 généralement un sore par limbe
 une indusie tubulaire, aux lèvres dont les cellules sont distinctes des tissus du limbe, et dont la bordure est souvent foncée à noire.
-Cette espèce est triploïde et compte, sur la base des 34 chromosomes du genre, 102 chromosomes[1].
+Cette espèce est triploïde et compte, sur la base des 34 chromosomes du genre, 102 chromosomes.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, épiphyte ou terrestre, est présente en Amérique du Nord (au Mexique, aux États-Unis :Alabama, Géorgie, Mississippi) et en Amérique centrale (Costa Rica, Guatemala, Honduras et El Salvador).
 </t>
@@ -580,14 +596,16 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1853, Asa Gray décrit une première fois cette espèce collectée dans l'état d'Alabama par Thomas M. Peters ; c'est à lui qu'il la dédie[2].
-En 1861, Roelof Benjamin van den Bosch la transfère dans le genre Microgonium : Microgonium petersii (A.Gray) Bosch[3].
-En 1875, Karl Anton Eugen Prantl la déplace dans le genre Hemiphlebium : Hemiphlebium petersii (A.Gray) Prantl[4].
-En 1938, Edwin Bingham Copeland la reclasse dans le genre Didymoglossum, son genre actuel[5].
-En 1974, Conrad Vernon Morton la replace dans le genre Trichomanes sous-genre Didymoglossum, section Didymoglossum[6].
-Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito confirment le classement de Edwin Bingham Copeland dans le genre Didymoglossum, la placent dans le sous-genre Didymoglossum comme une des espèces représentatives du sous-genre[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1853, Asa Gray décrit une première fois cette espèce collectée dans l'état d'Alabama par Thomas M. Peters ; c'est à lui qu'il la dédie.
+En 1861, Roelof Benjamin van den Bosch la transfère dans le genre Microgonium : Microgonium petersii (A.Gray) Bosch.
+En 1875, Karl Anton Eugen Prantl la déplace dans le genre Hemiphlebium : Hemiphlebium petersii (A.Gray) Prantl.
+En 1938, Edwin Bingham Copeland la reclasse dans le genre Didymoglossum, son genre actuel.
+En 1974, Conrad Vernon Morton la replace dans le genre Trichomanes sous-genre Didymoglossum, section Didymoglossum.
+Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito confirment le classement de Edwin Bingham Copeland dans le genre Didymoglossum, la placent dans le sous-genre Didymoglossum comme une des espèces représentatives du sous-genre.
 Elle compte donc les trois synonymes liés aux révisions de la famille des Hymenophyllacées suivants : 
 Trichomanes petersii A.Gray
 Hemiphlebium petersii (A.Gray) Prantl.
